--- a/excelauto/transactions2.xlsx
+++ b/excelauto/transactions2.xlsx
@@ -573,6 +573,9 @@
       <c r="C2" s="4" t="n">
         <v>5.95</v>
       </c>
+      <c r="D2" s="2" t="n">
+        <v>5.355</v>
+      </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="n">
@@ -584,6 +587,9 @@
       <c r="C3" s="4" t="n">
         <v>6.95</v>
       </c>
+      <c r="D3" s="2" t="n">
+        <v>6.255</v>
+      </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="n">
@@ -594,6 +600,9 @@
       </c>
       <c r="C4" s="4" t="n">
         <v>7.95</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>7.155</v>
       </c>
     </row>
   </sheetData>
